--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Students cannot open the “EditBooking” window from the Timetable window.</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>The filter on the Students section of the Edit Booking window works correctly.</t>
+  </si>
+  <si>
+    <t>Making a change to a Booking sends an email to the relevant teacher</t>
+  </si>
+  <si>
+    <t>Testing server capabilities under extreme load.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C56"/>
+  <dimension ref="A4:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +558,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
+        <f>B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -561,6 +568,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6">
+        <f t="shared" ref="B6:B9" si="0">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -569,6 +577,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -577,6 +586,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -585,6 +595,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -597,6 +608,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="6">
+        <f>B9+1</f>
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -605,6 +617,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
+        <f>B11+1</f>
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -617,6 +630,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
+        <f>B12+1</f>
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -626,6 +640,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
+        <f>B14+1</f>
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -635,6 +650,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="6">
+        <f t="shared" ref="B16:B19" si="1">B15+1</f>
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -644,6 +660,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -652,6 +669,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -660,6 +678,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -671,6 +690,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
+        <f>B19+1</f>
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -679,6 +699,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
+        <f>B21+1</f>
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -688,6 +709,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="6">
+        <f t="shared" ref="B23:B31" si="2">B22+1</f>
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -697,6 +719,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="6">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -705,6 +728,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -714,6 +738,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -723,6 +748,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -732,6 +758,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="6">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -739,7 +766,9 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="6">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -747,7 +776,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
       <c r="B30" s="6">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -755,196 +786,248 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6">
+        <f>B31+1</f>
+        <v>26</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <f>B33+1</f>
+        <v>27</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6">
+        <f>B34+1</f>
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <f>B36+1</f>
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <f t="shared" ref="B38:B53" si="3">B37+1</f>
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
-        <v>27</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
-        <v>30</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
-        <v>32</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
-        <v>33</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
-        <v>36</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
+      <c r="C53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6">
+        <f>B53+1</f>
+        <v>46</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6">
+        <f>B55+1</f>
+        <v>47</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6">
+        <f>B56+1</f>
+        <v>48</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
-        <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
-        <v>42</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
-        <v>43</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
-        <v>44</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
-        <v>45</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
-        <v>46</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
-        <v>47</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>40</v>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <f>B57+1</f>
+        <v>49</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Students cannot open the “EditBooking” window from the Timetable window.</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Bookings are displayed correctly if they recur (eg weekly)</t>
   </si>
   <si>
-    <t>Teachers can open the “EditBooking” window by clicking a tile.</t>
-  </si>
-  <si>
     <t>Creating a new Booking with the “EditBooking” window has initial data set (Logged in teacher, selected room, selected period).</t>
   </si>
   <si>
@@ -161,6 +158,30 @@
   </si>
   <si>
     <t>Testing server capabilities under extreme load.</t>
+  </si>
+  <si>
+    <t>Bookings play an animation if the current user is involved in them.</t>
+  </si>
+  <si>
+    <t>Teachers cannot open other teacher's bookings by clicking their tiles.</t>
+  </si>
+  <si>
+    <t>Teachers can open the “EditBooking” window by clicking an empty tile.</t>
+  </si>
+  <si>
+    <t>Admins can open the "EditBooking" window by clicking an empty tile.</t>
+  </si>
+  <si>
+    <t>Admins can open other user's bookings by clicking their tiles.</t>
+  </si>
+  <si>
+    <t>Separate the tests into client sending the message, receiving the messages, and server receiving and updating. Adds more bulk</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Room Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Room Window sends a message to the server with the new item.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +220,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF25FF25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +264,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C58"/>
+  <dimension ref="A2:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,488 +589,554 @@
     <col min="3" max="3" width="163" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="6">
-        <f>B4+1</f>
-        <v>2</v>
+      <c r="B5" s="9">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="6">
-        <f t="shared" ref="B6:B9" si="0">B5+1</f>
+      <c r="B6" s="9">
+        <f>B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9">
+        <f t="shared" ref="B7:B10" si="0">B6+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6">
-        <f>B9+1</f>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9">
+        <f>B10+1</f>
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <f>B12+1</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <f>B11+1</f>
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6">
-        <f>B12+1</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="6">
-        <f>B14+1</f>
+      <c r="B15" s="9">
+        <f>B13+1</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="6">
-        <f t="shared" ref="B16:B19" si="1">B15+1</f>
-        <v>11</v>
+      <c r="B16" s="9">
+        <f>B15+1</f>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
+        <f t="shared" ref="B17:B21" si="1">B16+1</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <f>B19+1</f>
+      <c r="B21" s="9">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
         <f>B21+1</f>
         <v>16</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <f>B23+1</f>
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <f>B24+1</f>
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <f>B25+1</f>
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <f>B26+1</f>
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6">
-        <f t="shared" ref="B23:B31" si="2">B22+1</f>
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6">
-        <f t="shared" si="2"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9">
+        <f t="shared" ref="B28:B36" si="2">B27+1</f>
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6">
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6">
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6">
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6">
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6">
-        <f>B31+1</f>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>19</v>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
-        <f>B33+1</f>
+      <c r="A34" s="7"/>
+      <c r="B34" s="9">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="6">
-        <f>B34+1</f>
+      <c r="B36" s="9">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9">
+        <f>B36+1</f>
+        <v>30</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <f>B38+1</f>
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9">
+        <f>B39+1</f>
+        <v>32</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
+        <f>B41+1</f>
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <f t="shared" ref="B43:B60" si="3">B42+1</f>
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
+        <f>B43+1</f>
+        <v>35</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <f>B44+1</f>
+        <v>36</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="9">
+        <f>B45+1</f>
+        <v>37</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="9">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="9">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="9">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="9">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
-        <f>B36+1</f>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
-        <f t="shared" ref="B38:B53" si="3">B37+1</f>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="6">
-        <f>B53+1</f>
+      <c r="B55" s="9">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="9">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="9">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="9">
+        <f>B60+1</f>
+        <v>52</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="9">
+        <f>B62+1</f>
+        <v>53</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="6">
-        <f>B55+1</f>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="9">
+        <f>B63+1</f>
+        <v>54</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="9">
+        <f>B64+1</f>
+        <v>55</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="6">
-        <f>B56+1</f>
-        <v>48</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
-        <f>B57+1</f>
-        <v>49</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Students cannot open the “EditBooking” window from the Timetable window.</t>
   </si>
@@ -182,6 +182,36 @@
   </si>
   <si>
     <t>Clicking "Submit" on the Edit Room Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Period Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Period Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Teacher Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Teacher Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Student Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Student Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Department Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Department Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Class Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Class Window sends a message to the server with the new item.</t>
   </si>
 </sst>
 </file>
@@ -577,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C65"/>
+  <dimension ref="A2:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +961,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
-        <f t="shared" ref="B43:B60" si="3">B42+1</f>
+        <f t="shared" ref="B43:B68" si="3">B42+1</f>
         <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -985,78 +1015,77 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="9">
-        <f t="shared" si="3"/>
+      <c r="B49" s="12">
+        <f>B48+1</f>
         <v>40</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <f>B49+1</f>
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="9">
+        <f>B50+1</f>
+        <v>42</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="9">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
       <c r="B52" s="9">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>28</v>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
-        <f t="shared" si="3"/>
+        <f>B52+1</f>
         <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="9">
-        <f t="shared" si="3"/>
+      <c r="B54" s="12">
+        <f>B53+1</f>
         <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="9">
-        <f t="shared" si="3"/>
+      <c r="B55" s="12">
+        <f>B54+1</f>
         <v>46</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>31</v>
+      <c r="C55" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
       <c r="B56" s="9">
-        <f t="shared" si="3"/>
+        <f>B55+1</f>
         <v>47</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>32</v>
+      <c r="C56" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,77 +1094,168 @@
         <v>48</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
       <c r="B58" s="9">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>34</v>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
-        <f t="shared" si="3"/>
+      <c r="B59" s="12">
+        <f>B58+1</f>
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="9">
-        <f t="shared" si="3"/>
+      <c r="B60" s="12">
+        <f>B59+1</f>
         <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="9">
+      <c r="A61" s="7"/>
+      <c r="B61" s="9">
         <f>B60+1</f>
         <v>52</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="9">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="12">
+        <f>B63+1</f>
+        <v>55</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="12">
+        <f>B64+1</f>
+        <v>56</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="9">
+        <f>B65+1</f>
+        <v>57</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="9">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="9">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
+        <f>B68+1</f>
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
+        <f>B69+1</f>
+        <v>61</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9">
+        <f>B70+1</f>
+        <v>62</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="9">
-        <f>B62+1</f>
-        <v>53</v>
-      </c>
-      <c r="C63" s="5" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9">
+        <f>B72+1</f>
+        <v>63</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="9">
-        <f>B63+1</f>
-        <v>54</v>
-      </c>
-      <c r="C64" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="9">
+        <f>B73+1</f>
+        <v>64</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
-        <f>B64+1</f>
-        <v>55</v>
-      </c>
-      <c r="C65" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="9">
+        <f>B74+1</f>
+        <v>65</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>47</v>
       </c>
     </row>

--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Students cannot open the “EditBooking” window from the Timetable window.</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Making a change to a Booking sends an email to the relevant teacher</t>
   </si>
   <si>
-    <t>Testing server capabilities under extreme load.</t>
-  </si>
-  <si>
     <t>Bookings play an animation if the current user is involved in them.</t>
   </si>
   <si>
@@ -212,6 +209,69 @@
   </si>
   <si>
     <t>Clicking "Submit" on the Edit Class Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>Clicking “Add Subject” on the Subjects tab of the Admin Control window displays the right window.</t>
+  </si>
+  <si>
+    <t>Clicking “Edit Subject” on the Subjects tab of the Admin Control displays the right window.</t>
+  </si>
+  <si>
+    <t>Clicking “Delete Subject” on the Subjects tab of the Admin Control checks for conflicts and deletes necessary Entities.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Subject Window shows an error message if any fields failed to validate.</t>
+  </si>
+  <si>
+    <t>Clicking "Submit" on the Edit Subject Window sends a message to the server with the new item.</t>
+  </si>
+  <si>
+    <t>The colour demonstrator on the Edit Subject Window displays the indicated colour in real-time.</t>
+  </si>
+  <si>
+    <t>Entering invalid input to the Red/Green/Blue component fields on the Edit Subject window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Room window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Period window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Teacher window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Room window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Period window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Teacher window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Student window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Student window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Department window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Department window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Class window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Class window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Entering a name that already exists in the Name field on the Edit Subject window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Leaving a field blank on the Edit Subject window is handled with an error message.</t>
   </si>
 </sst>
 </file>
@@ -240,24 +300,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF25FF25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -268,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -292,12 +346,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,8 +361,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF1D1D"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FF25FF25"/>
-      <color rgb="FFFF1D1D"/>
       <color rgb="FF7986FF"/>
       <color rgb="FF1A00DE"/>
     </mruColors>
@@ -607,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C75"/>
+  <dimension ref="A2:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,12 +677,12 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -634,8 +690,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10">
         <f>B5+1</f>
         <v>2</v>
       </c>
@@ -644,8 +700,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10">
         <f t="shared" ref="B7:B10" si="0">B6+1</f>
         <v>3</v>
       </c>
@@ -654,7 +710,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -663,7 +719,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -672,7 +728,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -681,12 +737,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10">
         <f>B10+1</f>
         <v>7</v>
       </c>
@@ -695,7 +751,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <f>B12+1</f>
         <v>8</v>
       </c>
@@ -704,12 +760,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10">
         <f>B13+1</f>
         <v>9</v>
       </c>
@@ -718,8 +774,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10">
         <f>B15+1</f>
         <v>10</v>
       </c>
@@ -728,8 +784,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10">
         <f t="shared" ref="B17:B21" si="1">B16+1</f>
         <v>11</v>
       </c>
@@ -738,8 +794,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -749,16 +805,16 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -767,7 +823,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -776,47 +832,47 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <f>B21+1</f>
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <f>B23+1</f>
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <f>B24+1</f>
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <f>B25+1</f>
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <f>B26+1</f>
         <v>20</v>
       </c>
@@ -825,8 +881,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10">
         <f t="shared" ref="B28:B36" si="2">B27+1</f>
         <v>21</v>
       </c>
@@ -835,8 +891,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -845,7 +901,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -854,8 +910,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9">
+      <c r="A31" s="11"/>
+      <c r="B31" s="10">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -864,8 +920,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9">
+      <c r="A32" s="11"/>
+      <c r="B32" s="10">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -874,8 +930,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -884,8 +940,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -894,8 +950,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -904,8 +960,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -914,12 +970,12 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9">
+      <c r="A38" s="11"/>
+      <c r="B38" s="10">
         <f>B36+1</f>
         <v>30</v>
       </c>
@@ -928,7 +984,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <f>B38+1</f>
         <v>31</v>
       </c>
@@ -937,12 +993,12 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9">
+      <c r="A41" s="11"/>
+      <c r="B41" s="10">
         <f>B39+1</f>
         <v>32</v>
       </c>
@@ -951,7 +1007,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <f>B41+1</f>
         <v>33</v>
       </c>
@@ -960,7 +1016,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <f t="shared" ref="B43:B68" si="3">B42+1</f>
         <v>34</v>
       </c>
@@ -969,26 +1025,26 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <f>B43+1</f>
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="9">
         <f>B44+1</f>
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="9">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10">
         <f>B45+1</f>
         <v>37</v>
       </c>
@@ -997,7 +1053,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
@@ -1006,7 +1062,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -1015,26 +1071,26 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <f>B48+1</f>
         <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <f>B49+1</f>
         <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="9">
+      <c r="A51" s="11"/>
+      <c r="B51" s="10">
         <f>B50+1</f>
         <v>42</v>
       </c>
@@ -1043,7 +1099,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -1052,7 +1108,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <f>B52+1</f>
         <v>44</v>
       </c>
@@ -1061,26 +1117,26 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <f>B53+1</f>
         <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <f>B54+1</f>
         <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="9">
+      <c r="A56" s="11"/>
+      <c r="B56" s="10">
         <f>B55+1</f>
         <v>47</v>
       </c>
@@ -1089,7 +1145,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="9">
+      <c r="B57" s="10">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -1098,7 +1154,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="9">
+      <c r="B58" s="10">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
@@ -1107,26 +1163,26 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+      <c r="B59" s="9">
         <f>B58+1</f>
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="9">
         <f>B59+1</f>
         <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="9">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10">
         <f>B60+1</f>
         <v>52</v>
       </c>
@@ -1135,7 +1191,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
@@ -1144,7 +1200,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
@@ -1153,26 +1209,26 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="9">
         <f>B63+1</f>
         <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="B65" s="9">
         <f>B64+1</f>
         <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="9">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10">
         <f>B65+1</f>
         <v>57</v>
       </c>
@@ -1181,7 +1237,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="9">
+      <c r="B67" s="10">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
@@ -1190,7 +1246,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="9">
+      <c r="B68" s="10">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
@@ -1199,65 +1255,267 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+      <c r="B69" s="9">
         <f>B68+1</f>
         <v>60</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="9">
         <f>B69+1</f>
         <v>61</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="9">
+      <c r="A71" s="13"/>
+      <c r="B71" s="9">
         <f>B70+1</f>
         <v>62</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>37</v>
+      <c r="C71" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="9">
+        <f t="shared" ref="B72:B73" si="4">B71+1</f>
+        <v>63</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
       <c r="B73" s="9">
-        <f>B72+1</f>
-        <v>63</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
       <c r="B74" s="9">
         <f>B73+1</f>
-        <v>64</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
         <f>B74+1</f>
-        <v>65</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="9">
+        <f>B75+1</f>
+        <v>67</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="9">
+        <f>B77+1</f>
+        <v>68</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="9">
+        <f t="shared" ref="B79:B95" si="5">B78+1</f>
+        <v>69</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="9">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="9">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="9">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="9">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="9">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="9">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="9">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="9">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="9">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="9">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="9">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="9">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="9">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="9">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="9">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="9">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Students cannot open the “EditBooking” window from the Timetable window.</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Making a change to a Booking sends an email to the relevant teacher</t>
   </si>
   <si>
-    <t>Bookings play an animation if the current user is involved in them.</t>
-  </si>
-  <si>
     <t>Teachers cannot open other teacher's bookings by clicking their tiles.</t>
   </si>
   <si>
@@ -175,39 +172,21 @@
     <t>Separate the tests into client sending the message, receiving the messages, and server receiving and updating. Adds more bulk</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Room Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Room Window sends a message to the server with the new item.</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Period Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Period Window sends a message to the server with the new item.</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Teacher Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Teacher Window sends a message to the server with the new item.</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Student Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Student Window sends a message to the server with the new item.</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Department Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Department Window sends a message to the server with the new item.</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Class Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Class Window sends a message to the server with the new item.</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>Clicking “Delete Subject” on the Subjects tab of the Admin Control checks for conflicts and deletes necessary Entities.</t>
   </si>
   <si>
-    <t>Clicking "Submit" on the Edit Subject Window shows an error message if any fields failed to validate.</t>
-  </si>
-  <si>
     <t>Clicking "Submit" on the Edit Subject Window sends a message to the server with the new item.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>Entering a name that already exists in the Name field on the Edit Period window is handled with an error message.</t>
   </si>
   <si>
-    <t>Entering a name that already exists in the Name field on the Edit Teacher window is handled with an error message.</t>
-  </si>
-  <si>
     <t>Leaving a field blank on the Edit Room window is handled with an error message.</t>
   </si>
   <si>
@@ -250,9 +223,6 @@
     <t>Leaving a field blank on the Edit Teacher window is handled with an error message.</t>
   </si>
   <si>
-    <t>Entering a name that already exists in the Name field on the Edit Student window is handled with an error message.</t>
-  </si>
-  <si>
     <t>Leaving a field blank on the Edit Student window is handled with an error message.</t>
   </si>
   <si>
@@ -272,6 +242,78 @@
   </si>
   <si>
     <t>Leaving a field blank on the Edit Subject window is handled with an error message.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Room object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Student object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Period object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Teacher object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Department object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Class object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon receiving a Subject object, the Server updates the database appropriately.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Room object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Period object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Teacher object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Student object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Department object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Class object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon updating the database with a Subject object, the Server distributes a message to all clients containing the changed item.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Room, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Period, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Teacher, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Student, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Department, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Class, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon receiving a message from the Server with a new Subject, the Client updates its internal model.</t>
+  </si>
+  <si>
+    <t>Upon connecting to a Server, the Client sends a message containing relevant information about the logged on user.</t>
+  </si>
+  <si>
+    <t>Upon receiving a log-on message from a Client, the Server responds with a  message containing user information from the database.</t>
+  </si>
+  <si>
+    <t>Booking Tiles play an animation if the current user is involved in them.</t>
   </si>
 </sst>
 </file>
@@ -300,18 +342,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -338,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,12 +383,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,8 +395,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF1D1D"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF25FF25"/>
       <color rgb="FF7986FF"/>
       <color rgb="FF1A00DE"/>
@@ -663,26 +698,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C96"/>
+  <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="163" customWidth="1"/>
+    <col min="3" max="3" width="127.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -690,8 +725,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8">
         <f>B5+1</f>
         <v>2</v>
       </c>
@@ -700,8 +735,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8">
         <f t="shared" ref="B7:B10" si="0">B6+1</f>
         <v>3</v>
       </c>
@@ -710,7 +745,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -719,7 +754,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -728,7 +763,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -741,8 +776,8 @@
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8">
         <f>B10+1</f>
         <v>7</v>
       </c>
@@ -751,7 +786,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <f>B12+1</f>
         <v>8</v>
       </c>
@@ -764,8 +799,8 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8">
         <f>B13+1</f>
         <v>9</v>
       </c>
@@ -774,8 +809,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8">
         <f>B15+1</f>
         <v>10</v>
       </c>
@@ -784,8 +819,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8">
         <f t="shared" ref="B17:B21" si="1">B16+1</f>
         <v>11</v>
       </c>
@@ -794,8 +829,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -805,16 +840,16 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -823,7 +858,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -841,38 +876,38 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <f>B23+1</f>
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <f>B24+1</f>
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <f>B25+1</f>
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <f>B26+1</f>
         <v>20</v>
       </c>
@@ -881,8 +916,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8">
         <f t="shared" ref="B28:B36" si="2">B27+1</f>
         <v>21</v>
       </c>
@@ -891,8 +926,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -901,7 +936,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -910,8 +945,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -920,8 +955,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -930,8 +965,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -940,8 +975,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -950,8 +985,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -960,8 +995,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="10">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -974,8 +1009,8 @@
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8">
         <f>B36+1</f>
         <v>30</v>
       </c>
@@ -984,7 +1019,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <f>B38+1</f>
         <v>31</v>
       </c>
@@ -997,8 +1032,8 @@
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8">
         <f>B39+1</f>
         <v>32</v>
       </c>
@@ -1007,7 +1042,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <f>B41+1</f>
         <v>33</v>
       </c>
@@ -1016,8 +1051,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
-        <f t="shared" ref="B43:B68" si="3">B42+1</f>
+      <c r="B43" s="8">
+        <f>B42+1</f>
         <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1025,497 +1060,632 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="9">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8">
         <f>B43+1</f>
         <v>35</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>53</v>
+      <c r="C44" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8">
         <f>B44+1</f>
         <v>36</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>54</v>
+      <c r="C45" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="10">
-        <f>B45+1</f>
+      <c r="A46" s="9"/>
+      <c r="B46" s="8">
+        <f t="shared" ref="B46:B47" si="3">B45+1</f>
         <v>37</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="10">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <f t="shared" ref="B48:B70" si="4">B47+1</f>
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="10">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
-        <f>B48+1</f>
-        <v>40</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
-        <f>B49+1</f>
+      <c r="A50" s="1"/>
+      <c r="B50" s="8">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
+      <c r="C50" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="10">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8">
         <f>B50+1</f>
         <v>42</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>25</v>
+      <c r="C51" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="10">
-        <f t="shared" si="3"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="8">
+        <f>B51+1</f>
         <v>43</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>26</v>
+      <c r="C52" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="10">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8">
         <f>B52+1</f>
         <v>44</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <f t="shared" ref="B55:B57" si="5">B54+1</f>
+        <v>46</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="9">
-        <f>B53+1</f>
-        <v>45</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="9">
-        <f>B54+1</f>
-        <v>46</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="10">
-        <f>B55+1</f>
+      <c r="A56" s="1"/>
+      <c r="B56" s="8">
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="8">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="8">
+        <f>B57+1</f>
+        <v>49</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="10">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="C57" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="10">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="C58" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
-        <f>B58+1</f>
-        <v>50</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="9">
-        <f>B59+1</f>
-        <v>51</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="10">
-        <f>B60+1</f>
+      <c r="A61" s="1"/>
+      <c r="B61" s="8">
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="8">
+        <f>B61+1</f>
+        <v>53</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="10">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="8">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="10">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="8">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="9">
-        <f>B63+1</f>
-        <v>55</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
-        <f>B64+1</f>
+      <c r="A65" s="1"/>
+      <c r="B65" s="8">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>62</v>
+      <c r="C65" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="10">
+      <c r="A66" s="1"/>
+      <c r="B66" s="8">
         <f>B65+1</f>
         <v>57</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="8">
+        <f>B66+1</f>
+        <v>58</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="10">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="C67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="10">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="C68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="8">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
-        <f>B68+1</f>
-        <v>60</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="9">
-        <f>B69+1</f>
+      <c r="A70" s="1"/>
+      <c r="B70" s="8">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>64</v>
+      <c r="C70" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="9">
+      <c r="A71" s="1"/>
+      <c r="B71" s="8">
         <f>B70+1</f>
         <v>62</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="8">
+        <f>B71+1</f>
+        <v>63</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <f t="shared" ref="B73:B75" si="6">B72+1</f>
+        <v>64</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="8">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="9">
-        <f t="shared" ref="B72:B73" si="4">B71+1</f>
+      <c r="C74" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="8">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="8">
+        <f t="shared" ref="B76:B78" si="7">B75+1</f>
+        <v>67</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="8">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="9">
-        <f>B73+1</f>
-        <v>65</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="9">
-        <f>B74+1</f>
-        <v>66</v>
-      </c>
-      <c r="C75" s="1" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="8">
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="9">
-        <f>B75+1</f>
-        <v>67</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="8">
+        <f>B78+1</f>
+        <v>70</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="8">
+        <f>B80+1</f>
+        <v>71</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="7"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="8">
+        <f>B81+1</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="9">
-        <f>B77+1</f>
-        <v>68</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="C83" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="8">
+        <f>B83+1</f>
+        <v>73</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="8">
+        <f t="shared" ref="B85:B88" si="8">B84+1</f>
+        <v>74</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="8">
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="9">
-        <f t="shared" ref="B79:B95" si="5">B78+1</f>
-        <v>69</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="9">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="9">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="C86" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="8">
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="9">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="9">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="9">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="C87" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="8">
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="9">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="9">
-        <f t="shared" si="5"/>
+      <c r="C88" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="8">
+        <f>B88+1</f>
+        <v>78</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="7"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="8">
+        <f>B89+1</f>
+        <v>79</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="9">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="9">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="9">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="9">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="9">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="9">
-        <f t="shared" si="5"/>
-        <v>82</v>
+      <c r="B92" s="8">
+        <f>B91+1</f>
+        <v>80</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="9">
-        <f t="shared" si="5"/>
+      <c r="B93" s="8">
+        <f t="shared" ref="B93:B97" si="9">B92+1</f>
+        <v>81</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="8">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="8">
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="9">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="9">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>70</v>
+      <c r="C95" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="8">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="8">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="8">
+        <f>B97+1</f>
+        <v>86</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="8">
+        <f>B99+1</f>
+        <v>87</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="8">
+        <f t="shared" ref="B101:B105" si="10">B100+1</f>
+        <v>88</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="8">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="8">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="8">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="8">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="8">
+        <f>B105+1</f>
+        <v>93</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="8">
+        <f>B107+1</f>
+        <v>94</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="8">
+        <f t="shared" ref="B109:B113" si="11">B108+1</f>
+        <v>95</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="8">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="8">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="8">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="8">
+        <f t="shared" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_Writeup/Test Plan Organisation.xlsx
+++ b/_Writeup/Test Plan Organisation.xlsx
@@ -342,18 +342,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -374,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,10 +377,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +832,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1060,7 +1053,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="8">
         <f>B43+1</f>
         <v>35</v>
@@ -1070,7 +1063,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="8">
         <f>B44+1</f>
         <v>36</v>
@@ -1330,7 +1323,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="8">
         <f>B71+1</f>
         <v>63</v>
@@ -1378,7 +1371,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="1"/>
       <c r="B77" s="8">
         <f t="shared" si="7"/>
         <v>68</v>
@@ -1388,7 +1381,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="8">
         <f t="shared" si="7"/>
         <v>69</v>
@@ -1402,7 +1395,7 @@
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="8">
         <f>B78+1</f>
         <v>70</v>
@@ -1492,7 +1485,7 @@
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="8">
         <f>B89+1</f>
         <v>79</v>
